--- a/Descargas/R15_12º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
+++ b/Descargas/R15_12º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B40" s="65">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B77" s="65">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
